--- a/Team-Data/2007-08/3-30-2007-08.xlsx
+++ b/Team-Data/2007-08/3-30-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>0.452</v>
+        <v>0.444</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J2" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L2" t="n">
         <v>4.5</v>
@@ -696,28 +763,28 @@
         <v>12.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O2" t="n">
         <v>21.1</v>
       </c>
       <c r="P2" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="Q2" t="n">
         <v>0.772</v>
       </c>
       <c r="R2" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T2" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U2" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V2" t="n">
         <v>15.1</v>
@@ -726,7 +793,7 @@
         <v>7.4</v>
       </c>
       <c r="X2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y2" t="n">
         <v>5.3</v>
@@ -738,13 +805,13 @@
         <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -765,7 +832,7 @@
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>27</v>
@@ -774,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
@@ -795,13 +862,13 @@
         <v>11</v>
       </c>
       <c r="AU2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
         <v>27</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -848,55 +915,55 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.795</v>
+        <v>0.792</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J3" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L3" t="n">
         <v>7.1</v>
       </c>
       <c r="M3" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O3" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="P3" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="Q3" t="n">
         <v>0.771</v>
       </c>
       <c r="R3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S3" t="n">
         <v>31.6</v>
       </c>
       <c r="T3" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="U3" t="n">
         <v>22.4</v>
@@ -905,28 +972,28 @@
         <v>15</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X3" t="n">
         <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
         <v>22.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -974,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -998,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1120,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1144,7 +1211,7 @@
         <v>20</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1153,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
@@ -1162,7 +1229,7 @@
         <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW4" t="n">
         <v>12</v>
@@ -1174,7 +1241,7 @@
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>16</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,10 +1369,10 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1323,10 +1390,10 @@
         <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>18</v>
@@ -1347,7 +1414,7 @@
         <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
         <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>0.554</v>
+        <v>0.548</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1427,10 +1494,10 @@
         <v>0.362</v>
       </c>
       <c r="O6" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
         <v>0.721</v>
@@ -1445,22 +1512,22 @@
         <v>44.4</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
         <v>7.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA6" t="n">
         <v>20.1</v>
@@ -1469,10 +1536,10 @@
         <v>96.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1484,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
         <v>22</v>
@@ -1508,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1517,13 +1584,13 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV6" t="n">
         <v>10</v>
@@ -1532,7 +1599,7 @@
         <v>18</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
         <v>13</v>
@@ -1544,7 +1611,7 @@
         <v>24</v>
       </c>
       <c r="BB6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
         <v>45</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.616</v>
+        <v>0.625</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1609,13 +1676,13 @@
         <v>0.352</v>
       </c>
       <c r="O7" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P7" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R7" t="n">
         <v>10.8</v>
@@ -1624,10 +1691,10 @@
         <v>32.4</v>
       </c>
       <c r="T7" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U7" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V7" t="n">
         <v>13.1</v>
@@ -1642,25 +1709,25 @@
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB7" t="n">
         <v>100.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
@@ -1675,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
@@ -1684,16 +1751,16 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>21</v>
@@ -1708,13 +1775,13 @@
         <v>21</v>
       </c>
       <c r="AV7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW7" t="n">
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
@@ -1729,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -1836,19 +1903,19 @@
         <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1878,10 +1945,10 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
@@ -2048,7 +2115,7 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
         <v>19</v>
@@ -2069,7 +2136,7 @@
         <v>22</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="n">
         <v>28</v>
       </c>
       <c r="G10" t="n">
-        <v>0.616</v>
+        <v>0.611</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,46 +2207,46 @@
         <v>41.4</v>
       </c>
       <c r="J10" t="n">
-        <v>89.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.461</v>
       </c>
       <c r="L10" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M10" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="N10" t="n">
         <v>0.352</v>
       </c>
       <c r="O10" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P10" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R10" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S10" t="n">
         <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U10" t="n">
         <v>22.6</v>
       </c>
       <c r="V10" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W10" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X10" t="n">
         <v>4.6</v>
@@ -2191,28 +2258,28 @@
         <v>23.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB10" t="n">
         <v>111.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>1</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
         <v>2</v>
@@ -2230,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
@@ -2251,10 +2318,10 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
@@ -2275,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
         <v>49</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.671</v>
+        <v>0.681</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2328,10 +2395,10 @@
         <v>0.45</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M11" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N11" t="n">
         <v>0.339</v>
@@ -2340,7 +2407,7 @@
         <v>16.2</v>
       </c>
       <c r="P11" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q11" t="n">
         <v>0.723</v>
@@ -2355,13 +2422,13 @@
         <v>44.6</v>
       </c>
       <c r="U11" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V11" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W11" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X11" t="n">
         <v>5.2</v>
@@ -2376,34 +2443,34 @@
         <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG11" t="n">
         <v>5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>6</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
@@ -2412,10 +2479,10 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2433,13 +2500,13 @@
         <v>1</v>
       </c>
       <c r="AU11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX11" t="n">
         <v>6</v>
@@ -2457,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
@@ -2603,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2621,10 +2688,10 @@
         <v>25</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2800,7 +2867,7 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -2850,46 +2917,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" t="n">
         <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>0.676</v>
+        <v>0.671</v>
       </c>
       <c r="H14" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J14" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.475</v>
       </c>
       <c r="L14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P14" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R14" t="n">
         <v>11</v>
@@ -2901,16 +2968,16 @@
         <v>44.3</v>
       </c>
       <c r="U14" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="V14" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
@@ -2922,25 +2989,25 @@
         <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.5</v>
+        <v>108.2</v>
       </c>
       <c r="AC14" t="n">
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2991,7 +3058,7 @@
         <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
         <v>14</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3119,16 +3186,16 @@
         <v>28</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3143,7 +3210,7 @@
         <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
@@ -3161,7 +3228,7 @@
         <v>16</v>
       </c>
       <c r="AU15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV15" t="n">
         <v>28</v>
@@ -3176,7 +3243,7 @@
         <v>19</v>
       </c>
       <c r="AZ15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
         <v>5</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -3214,64 +3281,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" t="n">
-        <v>0.178</v>
+        <v>0.181</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="J16" t="n">
-        <v>77.40000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L16" t="n">
         <v>5.4</v>
       </c>
       <c r="M16" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O16" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.726</v>
+        <v>0.724</v>
       </c>
       <c r="R16" t="n">
         <v>9.1</v>
       </c>
       <c r="S16" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T16" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="U16" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="V16" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W16" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X16" t="n">
         <v>4.3</v>
@@ -3286,13 +3353,13 @@
         <v>20.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>91.90000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>-8.5</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3307,13 +3374,13 @@
         <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>24</v>
@@ -3322,13 +3389,13 @@
         <v>24</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>25</v>
@@ -3346,10 +3413,10 @@
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3510,7 +3577,7 @@
         <v>23</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ17" t="n">
         <v>20</v>
@@ -3522,7 +3589,7 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -3578,55 +3645,55 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="n">
         <v>53</v>
       </c>
       <c r="G18" t="n">
-        <v>0.264</v>
+        <v>0.254</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J18" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
       </c>
       <c r="M18" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N18" t="n">
         <v>0.345</v>
       </c>
       <c r="O18" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R18" t="n">
         <v>11.7</v>
       </c>
       <c r="S18" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
         <v>19.9</v>
@@ -3647,37 +3714,37 @@
         <v>23.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.8</v>
+        <v>94.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE18" t="n">
         <v>28</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AF18" t="n">
         <v>27</v>
       </c>
-      <c r="AF18" t="n">
-        <v>26</v>
-      </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH18" t="n">
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
@@ -3701,13 +3768,13 @@
         <v>12</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV18" t="n">
         <v>23</v>
@@ -3731,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="BC18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3920,7 @@
         <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>25</v>
@@ -3868,7 +3935,7 @@
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3901,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3910,7 +3977,7 @@
         <v>7</v>
       </c>
       <c r="BB19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -3942,55 +4009,55 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.694</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
         <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L20" t="n">
         <v>7.8</v>
       </c>
       <c r="M20" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.393</v>
+        <v>0.391</v>
       </c>
       <c r="O20" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P20" t="n">
         <v>20.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T20" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
@@ -4008,19 +4075,19 @@
         <v>4.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA20" t="n">
         <v>19.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="AC20" t="n">
         <v>5</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4041,7 +4108,7 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4059,25 +4126,25 @@
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
         <v>15</v>
       </c>
       <c r="AT20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4092,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>0.274</v>
+        <v>0.278</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J21" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L21" t="n">
         <v>5.8</v>
@@ -4154,28 +4221,28 @@
         <v>17.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O21" t="n">
         <v>18.8</v>
       </c>
       <c r="P21" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="R21" t="n">
         <v>12.3</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U21" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="V21" t="n">
         <v>14.5</v>
@@ -4193,16 +4260,16 @@
         <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="AC21" t="n">
         <v>-6.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4235,7 +4302,7 @@
         <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
         <v>11</v>
@@ -4250,7 +4317,7 @@
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
@@ -4274,7 +4341,7 @@
         <v>19</v>
       </c>
       <c r="BB21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4463,7 @@
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
@@ -4429,7 +4496,7 @@
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" t="n">
         <v>37</v>
       </c>
       <c r="F23" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.507</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
         <v>81</v>
@@ -4518,22 +4585,22 @@
         <v>11.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
       <c r="O23" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P23" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q23" t="n">
         <v>0.705</v>
       </c>
       <c r="R23" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S23" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T23" t="n">
         <v>42.2</v>
@@ -4545,40 +4612,40 @@
         <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X23" t="n">
         <v>5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z23" t="n">
         <v>19.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>16</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4626,10 +4693,10 @@
         <v>4</v>
       </c>
       <c r="AX23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AY23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
         <v>7</v>
@@ -4638,7 +4705,7 @@
         <v>15</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>4.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF24" t="n">
         <v>6</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>5</v>
       </c>
       <c r="AG24" t="n">
         <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -4936,16 +5003,16 @@
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ25" t="n">
         <v>21</v>
@@ -4969,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
         <v>18</v>
@@ -4978,13 +5045,13 @@
         <v>21</v>
       </c>
       <c r="AT25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU25" t="n">
         <v>16</v>
       </c>
       <c r="AV25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
@@ -5002,7 +5069,7 @@
         <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" t="n">
         <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>0.452</v>
+        <v>0.444</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
         <v>6.3</v>
@@ -5067,13 +5134,13 @@
         <v>0.371</v>
       </c>
       <c r="O26" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="P26" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.798</v>
+        <v>0.796</v>
       </c>
       <c r="R26" t="n">
         <v>10.3</v>
@@ -5097,22 +5164,22 @@
         <v>4.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z26" t="n">
         <v>22.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.2</v>
+        <v>102</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.3</v>
+        <v>-2.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5127,13 +5194,13 @@
         <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>19</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
@@ -5142,7 +5209,7 @@
         <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5163,7 +5230,7 @@
         <v>27</v>
       </c>
       <c r="AU26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV26" t="n">
         <v>29</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -5216,34 +5283,34 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" t="n">
         <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J27" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L27" t="n">
         <v>7.5</v>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N27" t="n">
         <v>0.373</v>
@@ -5261,7 +5328,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S27" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T27" t="n">
         <v>41.2</v>
@@ -5270,10 +5337,10 @@
         <v>21.1</v>
       </c>
       <c r="V27" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
         <v>4.1</v>
@@ -5288,13 +5355,13 @@
         <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>3</v>
@@ -5306,10 +5373,10 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
         <v>27</v>
@@ -5324,7 +5391,7 @@
         <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5342,7 +5409,7 @@
         <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU27" t="n">
         <v>18</v>
@@ -5366,10 +5433,10 @@
         <v>22</v>
       </c>
       <c r="BB27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" t="n">
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" t="n">
-        <v>0.23</v>
+        <v>0.233</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.447</v>
@@ -5425,16 +5492,16 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P28" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q28" t="n">
         <v>0.768</v>
@@ -5443,10 +5510,10 @@
         <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T28" t="n">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="U28" t="n">
         <v>21.4</v>
@@ -5464,19 +5531,19 @@
         <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC28" t="n">
         <v>-8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5506,7 +5573,7 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO28" t="n">
         <v>22</v>
@@ -5521,10 +5588,10 @@
         <v>10</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>15</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -5580,58 +5647,58 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" t="n">
         <v>37</v>
       </c>
       <c r="F29" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="n">
-        <v>0.507</v>
+        <v>0.514</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J29" t="n">
         <v>81.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L29" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M29" t="n">
         <v>18.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.401</v>
+        <v>0.4</v>
       </c>
       <c r="O29" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P29" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S29" t="n">
         <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V29" t="n">
         <v>11.8</v>
@@ -5640,25 +5707,25 @@
         <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y29" t="n">
         <v>4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
         <v>16</v>
@@ -5667,7 +5734,7 @@
         <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
         <v>10</v>
@@ -5676,7 +5743,7 @@
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
@@ -5697,7 +5764,7 @@
         <v>30</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR29" t="n">
         <v>26</v>
@@ -5724,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5733,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" t="n">
         <v>48</v>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" t="n">
-        <v>0.649</v>
+        <v>0.658</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,25 +5847,25 @@
         <v>40</v>
       </c>
       <c r="J30" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.498</v>
+        <v>0.497</v>
       </c>
       <c r="L30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M30" t="n">
         <v>12.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.368</v>
+        <v>0.372</v>
       </c>
       <c r="O30" t="n">
         <v>21.9</v>
       </c>
       <c r="P30" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="Q30" t="n">
         <v>0.757</v>
@@ -5807,22 +5874,22 @@
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T30" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y30" t="n">
         <v>5.2</v>
@@ -5837,10 +5904,10 @@
         <v>106.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5882,13 +5949,13 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS30" t="n">
         <v>27</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
@@ -5944,61 +6011,61 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" t="n">
         <v>38</v>
       </c>
       <c r="F31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="n">
-        <v>0.521</v>
+        <v>0.528</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.444</v>
       </c>
       <c r="L31" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="M31" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.351</v>
+        <v>0.347</v>
       </c>
       <c r="O31" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P31" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.786</v>
+        <v>0.787</v>
       </c>
       <c r="R31" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S31" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T31" t="n">
         <v>41.6</v>
       </c>
       <c r="U31" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V31" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W31" t="n">
         <v>7.8</v>
@@ -6007,7 +6074,7 @@
         <v>4.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
         <v>19.7</v>
@@ -6016,13 +6083,13 @@
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6034,13 +6101,13 @@
         <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>24</v>
@@ -6052,7 +6119,7 @@
         <v>10</v>
       </c>
       <c r="AN31" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6085,7 +6152,7 @@
         <v>13</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>6</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-30-2007-08</t>
+          <t>2008-03-30</t>
         </is>
       </c>
     </row>
